--- a/day_6/pandas_01_day6.xlsx
+++ b/day_6/pandas_01_day6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="9">
   <si>
     <t>Height</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Favourite Dish</t>
+    <t>Favourite_Dish</t>
   </si>
   <si>
     <t>Chicken Pulao</t>
@@ -37,88 +37,10 @@
     <t>Pasta</t>
   </si>
   <si>
-    <t>6'1</t>
-  </si>
-  <si>
-    <t>6Ft</t>
-  </si>
-  <si>
-    <t>50KG</t>
-  </si>
-  <si>
-    <t>5.8ft</t>
-  </si>
-  <si>
-    <t>62kgs</t>
-  </si>
-  <si>
     <t>Chapel Kaba</t>
   </si>
   <si>
-    <t>5' 11"</t>
-  </si>
-  <si>
-    <t>50kg</t>
-  </si>
-  <si>
-    <t>5feet6 foot</t>
-  </si>
-  <si>
-    <t>5' 7"</t>
-  </si>
-  <si>
-    <t>72 kg</t>
-  </si>
-  <si>
-    <t>5 ft 9 in</t>
-  </si>
-  <si>
     <t>61kgs</t>
-  </si>
-  <si>
-    <t>5'8''</t>
-  </si>
-  <si>
-    <t>5feet 3inch</t>
-  </si>
-  <si>
-    <t>5 ft 9 inch</t>
-  </si>
-  <si>
-    <t>5'4"</t>
-  </si>
-  <si>
-    <t>5'3''</t>
-  </si>
-  <si>
-    <t>62 Kgs</t>
-  </si>
-  <si>
-    <t>5.8 feet</t>
-  </si>
-  <si>
-    <t>5' 3"</t>
-  </si>
-  <si>
-    <t>5'11</t>
-  </si>
-  <si>
-    <t>6'0</t>
-  </si>
-  <si>
-    <t>5.7ft</t>
-  </si>
-  <si>
-    <t>75kg</t>
-  </si>
-  <si>
-    <t>5’11</t>
-  </si>
-  <si>
-    <t>5'3</t>
-  </si>
-  <si>
-    <t>75KG</t>
   </si>
 </sst>
 </file>
@@ -192,7 +114,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +575,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
+      <c r="A14" s="1">
+        <v>6</v>
       </c>
       <c r="B14" s="5">
         <v>78</v>
@@ -796,11 +718,11 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -829,8 +751,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
+      <c r="A30" s="1">
+        <v>5.8</v>
       </c>
       <c r="B30" s="5">
         <v>65</v>
@@ -854,8 +776,8 @@
       <c r="A32" s="4">
         <v>5.1</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
+      <c r="B32" s="2">
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -891,7 +813,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
@@ -902,7 +824,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
@@ -946,12 +868,12 @@
         <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
+      <c r="A41" s="1">
+        <v>5.11</v>
       </c>
       <c r="B41" s="5">
         <v>55</v>
@@ -964,16 +886,16 @@
       <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>14</v>
+      <c r="B42" s="2">
+        <v>50</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
+      <c r="A43" s="1">
+        <v>11</v>
       </c>
       <c r="B43" s="5">
         <v>86</v>
@@ -1023,7 +945,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
@@ -1056,7 +978,7 @@
         <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
@@ -1071,19 +993,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
-      <c r="A52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>17</v>
+      <c r="A52" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B52" s="2">
+        <v>73</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
-      <c r="A53" s="1" t="s">
-        <v>18</v>
+      <c r="A53" s="1">
+        <v>15</v>
       </c>
       <c r="B53" s="5">
         <v>68</v>
@@ -1108,15 +1030,15 @@
         <v>5.2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
-      <c r="A56" s="1" t="s">
-        <v>20</v>
+      <c r="A56" s="1">
+        <v>5.8</v>
       </c>
       <c r="B56" s="5">
         <v>52</v>
@@ -1137,8 +1059,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
-      <c r="A58" s="1" t="s">
-        <v>21</v>
+      <c r="A58" s="1">
+        <v>5.3</v>
       </c>
       <c r="B58" s="5">
         <v>75</v>
@@ -1159,8 +1081,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
-      <c r="A60" s="1" t="s">
-        <v>22</v>
+      <c r="A60" s="1">
+        <v>5.9</v>
       </c>
       <c r="B60" s="5">
         <v>55</v>
@@ -1177,7 +1099,7 @@
         <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
@@ -1225,8 +1147,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
-      <c r="A66" s="1" t="s">
-        <v>23</v>
+      <c r="A66" s="1">
+        <v>5.4</v>
       </c>
       <c r="B66" s="5">
         <v>90</v>
@@ -1247,22 +1169,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>25</v>
+      <c r="A68" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B68" s="2">
+        <v>62</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>17</v>
+      <c r="A69" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B69" s="2">
+        <v>72</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -1291,14 +1213,14 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
-        <v>27</v>
+      <c r="A72" s="1">
+        <v>5.3</v>
       </c>
       <c r="B72" s="5">
         <v>65</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -1324,8 +1246,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1" t="s">
-        <v>28</v>
+      <c r="A75" s="1">
+        <v>5.11</v>
       </c>
       <c r="B75" s="5">
         <v>78</v>
@@ -1346,22 +1268,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1" t="s">
-        <v>29</v>
+      <c r="A77" s="1">
+        <v>6</v>
       </c>
       <c r="B77" s="5">
         <v>125</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>31</v>
+      <c r="A78" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B78" s="2">
+        <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>4</v>
@@ -1379,8 +1301,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="1" t="s">
-        <v>32</v>
+      <c r="A80" s="1">
+        <v>5.11</v>
       </c>
       <c r="B80" s="5">
         <v>72</v>
@@ -1390,8 +1312,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="1" t="s">
-        <v>33</v>
+      <c r="A81" s="1">
+        <v>5.3</v>
       </c>
       <c r="B81" s="5">
         <v>62</v>
@@ -1437,8 +1359,8 @@
       <c r="A85" s="4">
         <v>5.9</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
+      <c r="B85" s="2">
+        <v>75</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>5</v>
